--- a/data/trans_dic/P16B03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,43%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>51,76; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>67,46; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>80,65; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>73,63; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>62,17; 96,23</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>80,91; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>54,03; 92,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>82,88; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>65,91; 92,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
     </row>
@@ -857,42 +857,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,77%</t>
         </is>
       </c>
     </row>
@@ -910,42 +910,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>20,51; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>63,46; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>54,13; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>48,17; 94,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>81,37; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>56,84; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,41%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>28,5; 83,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>42,97; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>63,82; 95,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>77,36; 95,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>67,47; 94,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>58,68; 87,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>77,88; 94,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>72,84; 97,06</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>72,64; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>82,39; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 81,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>67,23; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>58,17; 92,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,07%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>56,41; 95,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>22,41; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>39,33; 87,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>76,09; 95,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>44,6; 83,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>76,29; 93,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>81,96; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>49,01; 79,39</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,86%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>62,63; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 83,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>16,02; 87,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>63,08; 93,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>80,98; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>70,47; 93,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>80,22; 97,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>76,73; 97,29</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,63%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,13%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>63,88; 85,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>63,95; 91,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>59,0; 86,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>83,08; 93,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>89,4; 96,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>82,46; 92,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>80,29; 89,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>87,4; 94,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>79,23; 89,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,95; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,06; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,18; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,87%</t>
+          <t>82,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,97; 100,0</t>
+          <t>23,65; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,36; 95,89</t>
+          <t>70,59; 96,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,88; 94,9</t>
+          <t>70,39; 95,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B03-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,76; 100,0</t>
+          <t>36,4; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,95; 100,0</t>
+          <t>20,53; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,39 +701,39 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>67,46; 100,0</t>
+          <t>67,4; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,06; 100,0</t>
+          <t>74,02; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,65; 100,0</t>
+          <t>77,87; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,63; 100,0</t>
+          <t>74,39; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,18; 100,0</t>
+          <t>72,3; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,17; 96,23</t>
+          <t>66,25; 96,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,91; 100,0</t>
+          <t>77,48; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,03; 92,32</t>
+          <t>56,34; 89,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,88; 100,0</t>
+          <t>85,38; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,91; 92,68</t>
+          <t>64,77; 92,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -842,7 +843,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,46; 100,0</t>
+          <t>65,57; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +931,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,13; 100,0</t>
+          <t>54,96; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,17; 94,46</t>
+          <t>46,84; 94,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,37; 100,0</t>
+          <t>83,32; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>56,84; 100,0</t>
+          <t>60,99; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,5; 83,75</t>
+          <t>23,32; 83,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,65; 100,0</t>
+          <t>21,82; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,82; 95,93</t>
+          <t>63,87; 96,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,59; 96,73</t>
+          <t>69,53; 96,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,47; 94,05</t>
+          <t>68,73; 93,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,68; 87,85</t>
+          <t>58,28; 87,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,39; 95,03</t>
+          <t>72,12; 95,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,84; 97,06</t>
+          <t>72,04; 94,84</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1146,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,64; 100,0</t>
+          <t>74,32; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1160,7 +1161,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,39; 100,0</t>
+          <t>77,82; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>67,23; 100,0</t>
+          <t>67,25; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1265,7 +1266,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,17; 92,07</t>
+          <t>56,94; 92,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1282,7 +1283,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,22 +1346,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56,41; 95,16</t>
+          <t>60,23; 95,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,41; 100,0</t>
+          <t>24,93; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,33; 87,64</t>
+          <t>42,24; 86,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>76,09; 95,54</t>
+          <t>74,85; 95,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1370,22 +1371,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,6; 83,73</t>
+          <t>43,16; 82,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,29; 93,6</t>
+          <t>75,62; 93,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>81,96; 100,0</t>
+          <t>79,91; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,01; 79,39</t>
+          <t>49,04; 79,8</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1456,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>62,63; 100,0</t>
+          <t>63,74; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,67</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,02; 87,23</t>
+          <t>15,94; 87,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>63,08; 93,01</t>
+          <t>64,1; 93,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1480,22 +1481,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,98; 100,0</t>
+          <t>80,6; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>70,47; 93,27</t>
+          <t>72,6; 92,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,22; 97,67</t>
+          <t>81,62; 97,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>76,73; 97,29</t>
+          <t>73,4; 96,87</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>63,88; 85,53</t>
+          <t>64,84; 85,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>63,95; 91,04</t>
+          <t>62,68; 91,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>59,0; 86,71</t>
+          <t>58,62; 87,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>83,08; 93,03</t>
+          <t>83,38; 93,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>89,4; 96,58</t>
+          <t>89,09; 96,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82,46; 92,77</t>
+          <t>81,96; 92,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80,29; 89,48</t>
+          <t>81,3; 89,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>87,4; 94,47</t>
+          <t>87,01; 94,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>79,23; 89,2</t>
+          <t>79,65; 89,34</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas recostituyentes fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5539</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3763</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15242</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15533</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19840</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20781</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19296</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20641</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2333; 6410</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>953; 4642</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3119</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10993; 16310</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12226; 16516</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16167; 20762</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16902; 22720</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15298; 21158</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15822; 22978</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9088</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8696</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20622</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22530</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11662</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29710</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31226</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16841</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6687; 9088</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6037; 8696</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3596; 5180</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16738; 21603</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16642; 26558</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9833; 11662</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26205; 30691</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24765; 35309</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14964; 16841</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13740</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19348</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9852</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13740</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23215</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11442</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1589</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>987; 4814</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>685; 1590</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9670; 14748</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17416; 19348</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6458; 11750</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8215; 16544</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20131; 24162</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8136; 13340</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6346</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4380</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5775</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20525</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28552</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25040</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26871</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32932</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30816</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2659; 9516</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1157; 5304</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4249; 5775</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15625; 23504</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22741; 31627</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20543; 28043</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20901; 31277</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27414; 36186</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25692; 33825</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9972</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19858</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10868</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24028</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7980</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>205; 895</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2658; 4170</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>204; 891</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8104; 9972</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15542; 20912</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5441; 7089</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9012; 10868</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19518; 25082</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6324; 7980</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2896</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16201</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14076</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10311</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18209</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16068</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13207</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3881</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>858; 1993</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1610; 2896</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12215; 18164</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12302; 14076</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8550; 10311</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13048; 21083</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14277; 16068</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>11425; 13207</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>13714</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5737</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10831</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>35905</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>44466</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16272</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>49619</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>50203</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>27104</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9940; 15691</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2137; 8573</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6858; 14085</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>30417; 38840</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>42443; 44466</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>10697; 20515</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>43206; 53485</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>42383; 53039</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>20116; 32735</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>14884</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>21594</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>35463</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>27526</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>36478</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>37863</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>31453</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>10760; 16880</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5498</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1083; 5921</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>16837; 24491</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>33413; 35463</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>23057; 28606</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>31327; 40114</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>33433; 39978</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>25982; 34291</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>52475</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>31892</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>153800</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>199826</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>127592</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>206274</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>234830</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>159485</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>44561; 58950</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>27384; 39772</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>24900; 37034</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>143551; 160205</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>189782; 205939</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>118725; 134393</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>195832; 216442</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>223382; 243307</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>149214; 167362</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>